--- a/modelos/OBAPBC4421309/OBAPBC4421309_Sell in_metricas.xlsx
+++ b/modelos/OBAPBC4421309/OBAPBC4421309_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,159 +473,159 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B2" t="n">
+        <v>487.2232597241725</v>
+      </c>
+      <c r="C2" t="n">
+        <v>248.3803350322364</v>
+      </c>
+      <c r="D2" t="n">
+        <v>693.5478410111982</v>
+      </c>
+      <c r="E2" t="n">
+        <v>410</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44817</v>
-      </c>
-      <c r="B2" t="n">
-        <v>453.0852704832126</v>
-      </c>
-      <c r="C2" t="n">
-        <v>216.151854240706</v>
-      </c>
-      <c r="D2" t="n">
-        <v>654.3101094571131</v>
-      </c>
-      <c r="E2" t="n">
-        <v>700</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44810</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B3" t="n">
+        <v>459.9696384231708</v>
+      </c>
+      <c r="C3" t="n">
+        <v>229.7990535903071</v>
+      </c>
+      <c r="D3" t="n">
+        <v>704.0880371753044</v>
+      </c>
+      <c r="E3" t="n">
+        <v>300</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44824</v>
-      </c>
-      <c r="B3" t="n">
-        <v>488.3996939360027</v>
-      </c>
-      <c r="C3" t="n">
-        <v>260.1574677336595</v>
-      </c>
-      <c r="D3" t="n">
-        <v>706.591208261218</v>
-      </c>
-      <c r="E3" t="n">
-        <v>410</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B4" t="n">
+        <v>438.1640897745503</v>
+      </c>
+      <c r="C4" t="n">
+        <v>210.2664022353367</v>
+      </c>
+      <c r="D4" t="n">
+        <v>673.7783082556173</v>
+      </c>
+      <c r="E4" t="n">
+        <v>270</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44831</v>
-      </c>
-      <c r="B4" t="n">
-        <v>451.4828138126024</v>
-      </c>
-      <c r="C4" t="n">
-        <v>230.1002983838449</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.0006578117751</v>
-      </c>
-      <c r="E4" t="n">
-        <v>300</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
       <c r="B5" t="n">
-        <v>437.3926566528302</v>
+        <v>426.1280967496302</v>
       </c>
       <c r="C5" t="n">
-        <v>197.9042869218414</v>
+        <v>199.9728856654578</v>
       </c>
       <c r="D5" t="n">
-        <v>677.5396769892524</v>
+        <v>649.6082680394238</v>
       </c>
       <c r="E5" t="n">
-        <v>270</v>
+        <v>530</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44831</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B6" t="n">
+        <v>400.9873769003921</v>
+      </c>
+      <c r="C6" t="n">
+        <v>183.7627033092253</v>
+      </c>
+      <c r="D6" t="n">
+        <v>609.1833493062337</v>
+      </c>
+      <c r="E6" t="n">
+        <v>390</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44852</v>
-      </c>
-      <c r="B6" t="n">
-        <v>427.1280254154671</v>
-      </c>
-      <c r="C6" t="n">
-        <v>194.9908568276052</v>
-      </c>
-      <c r="D6" t="n">
-        <v>646.647633233341</v>
-      </c>
-      <c r="E6" t="n">
-        <v>530</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44845</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B7" t="n">
+        <v>304.2570555371876</v>
+      </c>
+      <c r="C7" t="n">
+        <v>57.57187067408451</v>
+      </c>
+      <c r="D7" t="n">
+        <v>503.8802303450443</v>
+      </c>
+      <c r="E7" t="n">
+        <v>150</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44859</v>
-      </c>
-      <c r="B7" t="n">
-        <v>402.7597334412636</v>
-      </c>
-      <c r="C7" t="n">
-        <v>188.4010885206548</v>
-      </c>
-      <c r="D7" t="n">
-        <v>637.1978159046021</v>
-      </c>
-      <c r="E7" t="n">
-        <v>390</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44852</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B8" t="n">
-        <v>293.5554055764012</v>
+        <v>219.2104237998305</v>
       </c>
       <c r="C8" t="n">
-        <v>94.21451811631347</v>
+        <v>-6.211082057585995</v>
       </c>
       <c r="D8" t="n">
-        <v>521.8317104799152</v>
+        <v>445.3313305288969</v>
       </c>
       <c r="E8" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B9" t="n">
-        <v>227.2434226621264</v>
+        <v>376.9851570840058</v>
       </c>
       <c r="C9" t="n">
-        <v>8.439196323544946</v>
+        <v>175.0307352530075</v>
       </c>
       <c r="D9" t="n">
-        <v>451.4228550638155</v>
+        <v>626.9563591341251</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>44866</v>
@@ -633,99 +633,99 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B10" t="n">
+        <v>431.6460084238255</v>
+      </c>
+      <c r="C10" t="n">
+        <v>204.0106575742421</v>
+      </c>
+      <c r="D10" t="n">
+        <v>653.753005230213</v>
+      </c>
+      <c r="E10" t="n">
+        <v>260</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B10" t="n">
-        <v>384.0565626487828</v>
-      </c>
-      <c r="C10" t="n">
-        <v>164.8218620816534</v>
-      </c>
-      <c r="D10" t="n">
-        <v>617.8674697254677</v>
-      </c>
-      <c r="E10" t="n">
-        <v>390</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B11" t="n">
+        <v>418.3682976523132</v>
+      </c>
+      <c r="C11" t="n">
+        <v>183.0483019190285</v>
+      </c>
+      <c r="D11" t="n">
+        <v>661.1579923106154</v>
+      </c>
+      <c r="E11" t="n">
+        <v>320</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44880</v>
-      </c>
-      <c r="B11" t="n">
-        <v>441.6131758880489</v>
-      </c>
-      <c r="C11" t="n">
-        <v>215.7989879066478</v>
-      </c>
-      <c r="D11" t="n">
-        <v>644.3016088731709</v>
-      </c>
-      <c r="E11" t="n">
-        <v>260</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B12" t="n">
+        <v>349.1134754124994</v>
+      </c>
+      <c r="C12" t="n">
+        <v>133.7805687666738</v>
+      </c>
+      <c r="D12" t="n">
+        <v>574.5844037747373</v>
+      </c>
+      <c r="E12" t="n">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="B12" t="n">
-        <v>433.0064601795527</v>
-      </c>
-      <c r="C12" t="n">
-        <v>195.6135934462406</v>
-      </c>
-      <c r="D12" t="n">
-        <v>648.1171245615914</v>
-      </c>
-      <c r="E12" t="n">
-        <v>320</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44880</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B13" t="n">
+        <v>145.5298273097443</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-69.74497422738712</v>
+      </c>
+      <c r="D13" t="n">
+        <v>383.215472498197</v>
+      </c>
+      <c r="E13" t="n">
+        <v>150</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B13" t="n">
-        <v>344.3836576167128</v>
-      </c>
-      <c r="C13" t="n">
-        <v>125.6557162062409</v>
-      </c>
-      <c r="D13" t="n">
-        <v>571.4406596710108</v>
-      </c>
-      <c r="E13" t="n">
-        <v>90</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B14" t="n">
-        <v>131.2273560750329</v>
+        <v>274.8108612291754</v>
       </c>
       <c r="C14" t="n">
-        <v>-96.30096543238449</v>
+        <v>38.74529728619696</v>
       </c>
       <c r="D14" t="n">
-        <v>361.3293895619315</v>
+        <v>501.3376165714809</v>
       </c>
       <c r="E14" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>44894</v>
@@ -733,341 +733,321 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B15" t="n">
+        <v>363.8849699360485</v>
+      </c>
+      <c r="C15" t="n">
+        <v>148.4620521515994</v>
+      </c>
+      <c r="D15" t="n">
+        <v>570.3719930239814</v>
+      </c>
+      <c r="E15" t="n">
+        <v>570</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B15" t="n">
-        <v>229.8416873607793</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.419303361129028</v>
-      </c>
-      <c r="D15" t="n">
-        <v>453.1822151195474</v>
-      </c>
-      <c r="E15" t="n">
-        <v>190</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B16" t="n">
+        <v>570.9349928504191</v>
+      </c>
+      <c r="C16" t="n">
+        <v>338.3515247825687</v>
+      </c>
+      <c r="D16" t="n">
+        <v>794.5617245487925</v>
+      </c>
+      <c r="E16" t="n">
+        <v>240</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B16" t="n">
-        <v>292.1841447408219</v>
-      </c>
-      <c r="C16" t="n">
-        <v>52.38444503991531</v>
-      </c>
-      <c r="D16" t="n">
-        <v>519.7105856235164</v>
-      </c>
-      <c r="E16" t="n">
-        <v>570</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B17" t="n">
+        <v>660.1401826029355</v>
+      </c>
+      <c r="C17" t="n">
+        <v>433.0701345722431</v>
+      </c>
+      <c r="D17" t="n">
+        <v>911.6828335305196</v>
+      </c>
+      <c r="E17" t="n">
+        <v>210</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44915</v>
-      </c>
-      <c r="B17" t="n">
-        <v>515.4726120795058</v>
-      </c>
-      <c r="C17" t="n">
-        <v>286.0051187601373</v>
-      </c>
-      <c r="D17" t="n">
-        <v>749.9825750101242</v>
-      </c>
-      <c r="E17" t="n">
-        <v>240</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B18" t="n">
+        <v>566.7707541180534</v>
+      </c>
+      <c r="C18" t="n">
+        <v>350.2327590523223</v>
+      </c>
+      <c r="D18" t="n">
+        <v>798.9842613471413</v>
+      </c>
+      <c r="E18" t="n">
+        <v>360</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B18" t="n">
-        <v>638.3341282385838</v>
-      </c>
-      <c r="C18" t="n">
-        <v>418.5631751138012</v>
-      </c>
-      <c r="D18" t="n">
-        <v>867.7134517547678</v>
-      </c>
-      <c r="E18" t="n">
-        <v>210</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B19" t="n">
+        <v>372.7889744130646</v>
+      </c>
+      <c r="C19" t="n">
+        <v>136.7722347346533</v>
+      </c>
+      <c r="D19" t="n">
+        <v>612.4111305414571</v>
+      </c>
+      <c r="E19" t="n">
+        <v>110</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B19" t="n">
-        <v>577.398648151531</v>
-      </c>
-      <c r="C19" t="n">
-        <v>357.8478561117966</v>
-      </c>
-      <c r="D19" t="n">
-        <v>806.6905480986317</v>
-      </c>
-      <c r="E19" t="n">
-        <v>360</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44936</v>
+        <v>44985</v>
       </c>
       <c r="B20" t="n">
-        <v>395.8693358714289</v>
+        <v>264.0880721721368</v>
       </c>
       <c r="C20" t="n">
-        <v>170.8299724081778</v>
+        <v>32.54815284313355</v>
       </c>
       <c r="D20" t="n">
-        <v>614.2177326626378</v>
+        <v>502.0606919236171</v>
       </c>
       <c r="E20" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44929</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B21" t="n">
+        <v>481.1174640202473</v>
+      </c>
+      <c r="C21" t="n">
+        <v>244.5401414340016</v>
+      </c>
+      <c r="D21" t="n">
+        <v>707.808585782754</v>
+      </c>
+      <c r="E21" t="n">
+        <v>240</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B21" t="n">
-        <v>264.6517347580651</v>
-      </c>
-      <c r="C21" t="n">
-        <v>49.01834597295752</v>
-      </c>
-      <c r="D21" t="n">
-        <v>493.8499181338852</v>
-      </c>
-      <c r="E21" t="n">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>617.0804279549592</v>
+      </c>
+      <c r="C22" t="n">
+        <v>399.8197685635659</v>
+      </c>
+      <c r="D22" t="n">
+        <v>852.2661305965772</v>
+      </c>
+      <c r="E22" t="n">
+        <v>380</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B22" t="n">
-        <v>481.0920248093935</v>
-      </c>
-      <c r="C22" t="n">
-        <v>251.0469715918375</v>
-      </c>
-      <c r="D22" t="n">
-        <v>711.7147632686168</v>
-      </c>
-      <c r="E22" t="n">
-        <v>240</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B23" t="n">
-        <v>615.439413588311</v>
+        <v>376.281584544934</v>
       </c>
       <c r="C23" t="n">
-        <v>383.1492760723814</v>
+        <v>162.4981041439397</v>
       </c>
       <c r="D23" t="n">
-        <v>839.8056672450899</v>
+        <v>601.5082819015767</v>
       </c>
       <c r="E23" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B24" t="n">
+        <v>281.553704599045</v>
+      </c>
+      <c r="C24" t="n">
+        <v>62.17682722779249</v>
+      </c>
+      <c r="D24" t="n">
+        <v>518.162980332917</v>
+      </c>
+      <c r="E24" t="n">
+        <v>330</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B24" t="n">
-        <v>384.3140662593114</v>
-      </c>
-      <c r="C24" t="n">
-        <v>146.91697929328</v>
-      </c>
-      <c r="D24" t="n">
-        <v>609.919381557033</v>
-      </c>
-      <c r="E24" t="n">
-        <v>460</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B25" t="n">
+        <v>384.816964258</v>
+      </c>
+      <c r="C25" t="n">
+        <v>161.2139118084072</v>
+      </c>
+      <c r="D25" t="n">
+        <v>612.8905082941939</v>
+      </c>
+      <c r="E25" t="n">
+        <v>390</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B25" t="n">
-        <v>276.8853500278025</v>
-      </c>
-      <c r="C25" t="n">
-        <v>34.57446283379447</v>
-      </c>
-      <c r="D25" t="n">
-        <v>506.4306319630027</v>
-      </c>
-      <c r="E25" t="n">
-        <v>330</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B26" t="n">
+        <v>639.854480107936</v>
+      </c>
+      <c r="C26" t="n">
+        <v>419.8546651683216</v>
+      </c>
+      <c r="D26" t="n">
+        <v>863.0937926933919</v>
+      </c>
+      <c r="E26" t="n">
+        <v>600</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B26" t="n">
-        <v>380.0359547645846</v>
-      </c>
-      <c r="C26" t="n">
-        <v>147.3908996251346</v>
-      </c>
-      <c r="D26" t="n">
-        <v>601.4152815536279</v>
-      </c>
-      <c r="E26" t="n">
-        <v>390</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B27" t="n">
+        <v>732.0065204042692</v>
+      </c>
+      <c r="C27" t="n">
+        <v>511.3476671795648</v>
+      </c>
+      <c r="D27" t="n">
+        <v>964.5904609064978</v>
+      </c>
+      <c r="E27" t="n">
+        <v>800</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B27" t="n">
-        <v>645.9582280773413</v>
-      </c>
-      <c r="C27" t="n">
-        <v>434.8116295078698</v>
-      </c>
-      <c r="D27" t="n">
-        <v>861.3364289879627</v>
-      </c>
-      <c r="E27" t="n">
-        <v>600</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B28" t="n">
-        <v>753.3295077305215</v>
+        <v>838.5402073944748</v>
       </c>
       <c r="C28" t="n">
-        <v>543.2660549468462</v>
+        <v>620.6628501896615</v>
       </c>
       <c r="D28" t="n">
-        <v>974.239481603452</v>
+        <v>1063.64701937627</v>
       </c>
       <c r="E28" t="n">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B29" t="n">
+        <v>593.0301785312616</v>
+      </c>
+      <c r="C29" t="n">
+        <v>365.8075991678761</v>
+      </c>
+      <c r="D29" t="n">
+        <v>817.0570051411777</v>
+      </c>
+      <c r="E29" t="n">
+        <v>560</v>
+      </c>
+      <c r="F29" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B29" t="n">
-        <v>848.6960059077601</v>
-      </c>
-      <c r="C29" t="n">
-        <v>625.7403180023324</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1064.68546324449</v>
-      </c>
-      <c r="E29" t="n">
-        <v>810</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B30" t="n">
-        <v>597.0836510099757</v>
+        <v>290.7646394886864</v>
       </c>
       <c r="C30" t="n">
-        <v>369.0070802552964</v>
+        <v>60.60839968613086</v>
       </c>
       <c r="D30" t="n">
-        <v>795.4759936231783</v>
+        <v>508.18914066415</v>
       </c>
       <c r="E30" t="n">
-        <v>560</v>
+        <v>170</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B31" t="n">
-        <v>290.5316175333728</v>
-      </c>
-      <c r="C31" t="n">
-        <v>70.91719639333681</v>
-      </c>
-      <c r="D31" t="n">
-        <v>510.898392512288</v>
-      </c>
-      <c r="E31" t="n">
-        <v>170</v>
-      </c>
-      <c r="F31" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1082,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,25 +1114,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>10352.64656807786</v>
+        <v>7115.553793207951</v>
       </c>
       <c r="C2" t="n">
-        <v>101.7479560879621</v>
+        <v>84.35374202255612</v>
       </c>
       <c r="D2" t="n">
-        <v>87.74464371314214</v>
+        <v>61.84029824504307</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5713889151911262</v>
+        <v>0.6109526946333379</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1251509594997805</v>
+        <v>0.6109526946333379</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3876572530282495</v>
+        <v>0.3885800056162406</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1160,28 +1140,54 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14209.17622526903</v>
+      </c>
+      <c r="C3" t="n">
+        <v>119.202249245847</v>
+      </c>
+      <c r="D3" t="n">
+        <v>111.1252675664592</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5566861098712905</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5566861098712905</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3839629567224241</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>34739.00187097901</v>
-      </c>
-      <c r="C3" t="n">
-        <v>186.3840172090381</v>
-      </c>
-      <c r="D3" t="n">
-        <v>151.2199194066569</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9066473716309437</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.420270712678953</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4508015085932383</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6538461538461539</v>
+      <c r="B4" t="n">
+        <v>33897.04552524682</v>
+      </c>
+      <c r="C4" t="n">
+        <v>184.1115029683013</v>
+      </c>
+      <c r="D4" t="n">
+        <v>147.0297161609046</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9354764886654063</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4463729538377654</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4508274193283262</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7200000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPBC4421309/OBAPBC4421309_Sell in_metricas.xlsx
+++ b/modelos/OBAPBC4421309/OBAPBC4421309_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44824</v>
       </c>
       <c r="B2" t="n">
-        <v>487.2232597241725</v>
+        <v>493.0171092028762</v>
       </c>
       <c r="C2" t="n">
-        <v>248.3803350322364</v>
+        <v>272.900724181778</v>
       </c>
       <c r="D2" t="n">
-        <v>693.5478410111982</v>
+        <v>730.4870456444077</v>
       </c>
       <c r="E2" t="n">
         <v>410</v>
@@ -496,13 +496,13 @@
         <v>44831</v>
       </c>
       <c r="B3" t="n">
-        <v>459.9696384231708</v>
+        <v>467.5566416763919</v>
       </c>
       <c r="C3" t="n">
-        <v>229.7990535903071</v>
+        <v>238.5051353455582</v>
       </c>
       <c r="D3" t="n">
-        <v>704.0880371753044</v>
+        <v>699.8460163191204</v>
       </c>
       <c r="E3" t="n">
         <v>300</v>
@@ -516,13 +516,13 @@
         <v>44838</v>
       </c>
       <c r="B4" t="n">
-        <v>438.1640897745503</v>
+        <v>446.3978725215686</v>
       </c>
       <c r="C4" t="n">
-        <v>210.2664022353367</v>
+        <v>220.8897152674143</v>
       </c>
       <c r="D4" t="n">
-        <v>673.7783082556173</v>
+        <v>664.1217279228288</v>
       </c>
       <c r="E4" t="n">
         <v>270</v>
@@ -536,13 +536,13 @@
         <v>44852</v>
       </c>
       <c r="B5" t="n">
-        <v>426.1280967496302</v>
+        <v>424.4252980326587</v>
       </c>
       <c r="C5" t="n">
-        <v>199.9728856654578</v>
+        <v>179.3172549550429</v>
       </c>
       <c r="D5" t="n">
-        <v>649.6082680394238</v>
+        <v>655.5868720714253</v>
       </c>
       <c r="E5" t="n">
         <v>530</v>
@@ -556,13 +556,13 @@
         <v>44859</v>
       </c>
       <c r="B6" t="n">
-        <v>400.9873769003921</v>
+        <v>407.0135666427747</v>
       </c>
       <c r="C6" t="n">
-        <v>183.7627033092253</v>
+        <v>194.576693712082</v>
       </c>
       <c r="D6" t="n">
-        <v>609.1833493062337</v>
+        <v>645.9192595580909</v>
       </c>
       <c r="E6" t="n">
         <v>390</v>
@@ -576,13 +576,13 @@
         <v>44865</v>
       </c>
       <c r="B7" t="n">
-        <v>304.2570555371876</v>
+        <v>287.3286296158108</v>
       </c>
       <c r="C7" t="n">
-        <v>57.57187067408451</v>
+        <v>55.37571463162249</v>
       </c>
       <c r="D7" t="n">
-        <v>503.8802303450443</v>
+        <v>531.8739596444722</v>
       </c>
       <c r="E7" t="n">
         <v>150</v>
@@ -596,13 +596,13 @@
         <v>44869</v>
       </c>
       <c r="B8" t="n">
-        <v>219.2104237998305</v>
+        <v>208.9509065264764</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.211082057585995</v>
+        <v>-26.2349488476592</v>
       </c>
       <c r="D8" t="n">
-        <v>445.3313305288969</v>
+        <v>436.2804827973916</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -616,13 +616,13 @@
         <v>44873</v>
       </c>
       <c r="B9" t="n">
-        <v>376.9851570840058</v>
+        <v>387.9367982084501</v>
       </c>
       <c r="C9" t="n">
-        <v>175.0307352530075</v>
+        <v>171.2757824764343</v>
       </c>
       <c r="D9" t="n">
-        <v>626.9563591341251</v>
+        <v>608.8396589030376</v>
       </c>
       <c r="E9" t="n">
         <v>390</v>
@@ -636,13 +636,13 @@
         <v>44880</v>
       </c>
       <c r="B10" t="n">
-        <v>431.6460084238255</v>
+        <v>432.360140693123</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0106575742421</v>
+        <v>187.1527589995221</v>
       </c>
       <c r="D10" t="n">
-        <v>653.753005230213</v>
+        <v>669.1096172410641</v>
       </c>
       <c r="E10" t="n">
         <v>260</v>
@@ -656,13 +656,13 @@
         <v>44887</v>
       </c>
       <c r="B11" t="n">
-        <v>418.3682976523132</v>
+        <v>411.5583073944837</v>
       </c>
       <c r="C11" t="n">
-        <v>183.0483019190285</v>
+        <v>172.4419295037522</v>
       </c>
       <c r="D11" t="n">
-        <v>661.1579923106154</v>
+        <v>661.198336296158</v>
       </c>
       <c r="E11" t="n">
         <v>320</v>
@@ -676,13 +676,13 @@
         <v>44894</v>
       </c>
       <c r="B12" t="n">
-        <v>349.1134754124994</v>
+        <v>348.6224982527636</v>
       </c>
       <c r="C12" t="n">
-        <v>133.7805687666738</v>
+        <v>119.3199588682442</v>
       </c>
       <c r="D12" t="n">
-        <v>574.5844037747373</v>
+        <v>580.4771062078861</v>
       </c>
       <c r="E12" t="n">
         <v>90</v>
@@ -696,13 +696,13 @@
         <v>44897</v>
       </c>
       <c r="B13" t="n">
-        <v>145.5298273097443</v>
+        <v>143.0498530340689</v>
       </c>
       <c r="C13" t="n">
-        <v>-69.74497422738712</v>
+        <v>-91.0082724446402</v>
       </c>
       <c r="D13" t="n">
-        <v>383.215472498197</v>
+        <v>385.2528288157786</v>
       </c>
       <c r="E13" t="n">
         <v>150</v>
@@ -716,13 +716,13 @@
         <v>44901</v>
       </c>
       <c r="B14" t="n">
-        <v>274.8108612291754</v>
+        <v>303.6944005442144</v>
       </c>
       <c r="C14" t="n">
-        <v>38.74529728619696</v>
+        <v>65.93409569324238</v>
       </c>
       <c r="D14" t="n">
-        <v>501.3376165714809</v>
+        <v>539.7506808908686</v>
       </c>
       <c r="E14" t="n">
         <v>190</v>
@@ -736,13 +736,13 @@
         <v>44908</v>
       </c>
       <c r="B15" t="n">
-        <v>363.8849699360485</v>
+        <v>377.2341197630838</v>
       </c>
       <c r="C15" t="n">
-        <v>148.4620521515994</v>
+        <v>141.6752554540364</v>
       </c>
       <c r="D15" t="n">
-        <v>570.3719930239814</v>
+        <v>603.0297020743924</v>
       </c>
       <c r="E15" t="n">
         <v>570</v>
@@ -756,13 +756,13 @@
         <v>44915</v>
       </c>
       <c r="B16" t="n">
-        <v>570.9349928504191</v>
+        <v>559.7306779303221</v>
       </c>
       <c r="C16" t="n">
-        <v>338.3515247825687</v>
+        <v>320.7822165965093</v>
       </c>
       <c r="D16" t="n">
-        <v>794.5617245487925</v>
+        <v>789.1170374668972</v>
       </c>
       <c r="E16" t="n">
         <v>240</v>
@@ -776,13 +776,13 @@
         <v>44922</v>
       </c>
       <c r="B17" t="n">
-        <v>660.1401826029355</v>
+        <v>610.2984604211838</v>
       </c>
       <c r="C17" t="n">
-        <v>433.0701345722431</v>
+        <v>381.8918185325298</v>
       </c>
       <c r="D17" t="n">
-        <v>911.6828335305196</v>
+        <v>843.6689096679844</v>
       </c>
       <c r="E17" t="n">
         <v>210</v>
@@ -796,13 +796,13 @@
         <v>44929</v>
       </c>
       <c r="B18" t="n">
-        <v>566.7707541180534</v>
+        <v>510.0612417327555</v>
       </c>
       <c r="C18" t="n">
-        <v>350.2327590523223</v>
+        <v>257.4599638229176</v>
       </c>
       <c r="D18" t="n">
-        <v>798.9842613471413</v>
+        <v>741.0557302961402</v>
       </c>
       <c r="E18" t="n">
         <v>360</v>
@@ -816,13 +816,13 @@
         <v>44936</v>
       </c>
       <c r="B19" t="n">
-        <v>372.7889744130646</v>
+        <v>329.0109801115113</v>
       </c>
       <c r="C19" t="n">
-        <v>136.7722347346533</v>
+        <v>110.3760005011209</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4111305414571</v>
+        <v>562.8997635263862</v>
       </c>
       <c r="E19" t="n">
         <v>110</v>
@@ -836,13 +836,13 @@
         <v>44985</v>
       </c>
       <c r="B20" t="n">
-        <v>264.0880721721368</v>
+        <v>269.5048669821369</v>
       </c>
       <c r="C20" t="n">
-        <v>32.54815284313355</v>
+        <v>35.70164671629311</v>
       </c>
       <c r="D20" t="n">
-        <v>502.0606919236171</v>
+        <v>502.1198545711642</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
@@ -856,13 +856,13 @@
         <v>44992</v>
       </c>
       <c r="B21" t="n">
-        <v>481.1174640202473</v>
+        <v>494.8998519010357</v>
       </c>
       <c r="C21" t="n">
-        <v>244.5401414340016</v>
+        <v>271.40037988144</v>
       </c>
       <c r="D21" t="n">
-        <v>707.808585782754</v>
+        <v>734.6735388098376</v>
       </c>
       <c r="E21" t="n">
         <v>240</v>
@@ -876,13 +876,13 @@
         <v>44999</v>
       </c>
       <c r="B22" t="n">
-        <v>617.0804279549592</v>
+        <v>624.0908018817985</v>
       </c>
       <c r="C22" t="n">
-        <v>399.8197685635659</v>
+        <v>400.7240845869067</v>
       </c>
       <c r="D22" t="n">
-        <v>852.2661305965772</v>
+        <v>868.6676945190064</v>
       </c>
       <c r="E22" t="n">
         <v>380</v>
@@ -896,13 +896,13 @@
         <v>45013</v>
       </c>
       <c r="B23" t="n">
-        <v>376.281584544934</v>
+        <v>381.4733068448907</v>
       </c>
       <c r="C23" t="n">
-        <v>162.4981041439397</v>
+        <v>158.3727438691301</v>
       </c>
       <c r="D23" t="n">
-        <v>601.5082819015767</v>
+        <v>608.0418852097824</v>
       </c>
       <c r="E23" t="n">
         <v>460</v>
@@ -916,13 +916,13 @@
         <v>45020</v>
       </c>
       <c r="B24" t="n">
-        <v>281.553704599045</v>
+        <v>286.7530067549814</v>
       </c>
       <c r="C24" t="n">
-        <v>62.17682722779249</v>
+        <v>53.13351622210905</v>
       </c>
       <c r="D24" t="n">
-        <v>518.162980332917</v>
+        <v>528.1281417507158</v>
       </c>
       <c r="E24" t="n">
         <v>330</v>
@@ -936,13 +936,13 @@
         <v>45027</v>
       </c>
       <c r="B25" t="n">
-        <v>384.816964258</v>
+        <v>386.1926471092381</v>
       </c>
       <c r="C25" t="n">
-        <v>161.2139118084072</v>
+        <v>161.8581721318598</v>
       </c>
       <c r="D25" t="n">
-        <v>612.8905082941939</v>
+        <v>608.3504767426966</v>
       </c>
       <c r="E25" t="n">
         <v>390</v>
@@ -956,13 +956,13 @@
         <v>45034</v>
       </c>
       <c r="B26" t="n">
-        <v>639.854480107936</v>
+        <v>642.5791374132521</v>
       </c>
       <c r="C26" t="n">
-        <v>419.8546651683216</v>
+        <v>417.5360049226472</v>
       </c>
       <c r="D26" t="n">
-        <v>863.0937926933919</v>
+        <v>863.6203172331685</v>
       </c>
       <c r="E26" t="n">
         <v>600</v>
@@ -976,13 +976,13 @@
         <v>45040</v>
       </c>
       <c r="B27" t="n">
-        <v>732.0065204042692</v>
+        <v>729.1634366701946</v>
       </c>
       <c r="C27" t="n">
-        <v>511.3476671795648</v>
+        <v>500.5134519824812</v>
       </c>
       <c r="D27" t="n">
-        <v>964.5904609064978</v>
+        <v>959.6830053328364</v>
       </c>
       <c r="E27" t="n">
         <v>800</v>
@@ -996,13 +996,13 @@
         <v>45048</v>
       </c>
       <c r="B28" t="n">
-        <v>838.5402073944748</v>
+        <v>843.1112476515636</v>
       </c>
       <c r="C28" t="n">
-        <v>620.6628501896615</v>
+        <v>633.7936148958685</v>
       </c>
       <c r="D28" t="n">
-        <v>1063.64701937627</v>
+        <v>1060.133846433684</v>
       </c>
       <c r="E28" t="n">
         <v>810</v>
@@ -1016,13 +1016,13 @@
         <v>45055</v>
       </c>
       <c r="B29" t="n">
-        <v>593.0301785312616</v>
+        <v>599.6327338646506</v>
       </c>
       <c r="C29" t="n">
-        <v>365.8075991678761</v>
+        <v>374.9868062892073</v>
       </c>
       <c r="D29" t="n">
-        <v>817.0570051411777</v>
+        <v>821.976909075218</v>
       </c>
       <c r="E29" t="n">
         <v>560</v>
@@ -1036,13 +1036,13 @@
         <v>45062</v>
       </c>
       <c r="B30" t="n">
-        <v>290.7646394886864</v>
+        <v>292.8113147390679</v>
       </c>
       <c r="C30" t="n">
-        <v>60.60839968613086</v>
+        <v>79.75171229277684</v>
       </c>
       <c r="D30" t="n">
-        <v>508.18914066415</v>
+        <v>517.9443935024827</v>
       </c>
       <c r="E30" t="n">
         <v>170</v>
@@ -1117,22 +1117,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>7115.553793207951</v>
+        <v>5959.302287894518</v>
       </c>
       <c r="C2" t="n">
-        <v>84.35374202255612</v>
+        <v>77.19651733008762</v>
       </c>
       <c r="D2" t="n">
-        <v>61.84029824504307</v>
+        <v>57.95052674620374</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6109526946333379</v>
+        <v>0.5679216891854856</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6109526946333379</v>
+        <v>0.5679216891854856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3885800056162406</v>
+        <v>0.3763645615076834</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1143,22 +1143,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>14209.17622526903</v>
+        <v>11938.48560826703</v>
       </c>
       <c r="C3" t="n">
-        <v>119.202249245847</v>
+        <v>109.263377250875</v>
       </c>
       <c r="D3" t="n">
-        <v>111.1252675664592</v>
+        <v>104.0825964728081</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5566861098712905</v>
+        <v>0.5020349508004975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5566861098712905</v>
+        <v>0.5020349508004975</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3839629567224241</v>
+        <v>0.3603407481796155</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1169,22 +1169,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>33897.04552524682</v>
+        <v>31002.64754724264</v>
       </c>
       <c r="C4" t="n">
-        <v>184.1115029683013</v>
+        <v>176.0756869850084</v>
       </c>
       <c r="D4" t="n">
-        <v>147.0297161609046</v>
+        <v>142.8774669937668</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9354764886654063</v>
+        <v>0.9188946740699233</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4463729538377654</v>
+        <v>0.4168367825909876</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4508274193283262</v>
+        <v>0.4447621516930429</v>
       </c>
       <c r="H4" t="n">
         <v>0.7200000000000006</v>

--- a/modelos/OBAPBC4421309/OBAPBC4421309_Sell in_metricas.xlsx
+++ b/modelos/OBAPBC4421309/OBAPBC4421309_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,139 +473,139 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B2" t="n">
+        <v>473.0180207148915</v>
+      </c>
+      <c r="C2" t="n">
+        <v>236.9963425257611</v>
+      </c>
+      <c r="D2" t="n">
+        <v>699.2162770132703</v>
+      </c>
+      <c r="E2" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44824</v>
-      </c>
-      <c r="B2" t="n">
-        <v>493.0171092028762</v>
-      </c>
-      <c r="C2" t="n">
-        <v>272.900724181778</v>
-      </c>
-      <c r="D2" t="n">
-        <v>730.4870456444077</v>
-      </c>
-      <c r="E2" t="n">
-        <v>410</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B3" t="n">
+        <v>446.5276192857693</v>
+      </c>
+      <c r="C3" t="n">
+        <v>203.37837663103</v>
+      </c>
+      <c r="D3" t="n">
+        <v>667.798706530155</v>
+      </c>
+      <c r="E3" t="n">
+        <v>270</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44831</v>
-      </c>
-      <c r="B3" t="n">
-        <v>467.5566416763919</v>
-      </c>
-      <c r="C3" t="n">
-        <v>238.5051353455582</v>
-      </c>
-      <c r="D3" t="n">
-        <v>699.8460163191204</v>
-      </c>
-      <c r="E3" t="n">
-        <v>300</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
       <c r="B4" t="n">
-        <v>446.3978725215686</v>
+        <v>427.0486208548216</v>
       </c>
       <c r="C4" t="n">
-        <v>220.8897152674143</v>
+        <v>193.6737340587399</v>
       </c>
       <c r="D4" t="n">
-        <v>664.1217279228288</v>
+        <v>648.1366457040648</v>
       </c>
       <c r="E4" t="n">
-        <v>270</v>
+        <v>530</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44831</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B5" t="n">
+        <v>402.1985297690878</v>
+      </c>
+      <c r="C5" t="n">
+        <v>171.9017199792154</v>
+      </c>
+      <c r="D5" t="n">
+        <v>637.8147309818091</v>
+      </c>
+      <c r="E5" t="n">
+        <v>390</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44852</v>
-      </c>
-      <c r="B5" t="n">
-        <v>424.4252980326587</v>
-      </c>
-      <c r="C5" t="n">
-        <v>179.3172549550429</v>
-      </c>
-      <c r="D5" t="n">
-        <v>655.5868720714253</v>
-      </c>
-      <c r="E5" t="n">
-        <v>530</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B6" t="n">
+        <v>280.5073489751994</v>
+      </c>
+      <c r="C6" t="n">
+        <v>57.67457231545634</v>
+      </c>
+      <c r="D6" t="n">
+        <v>512.8393626318986</v>
+      </c>
+      <c r="E6" t="n">
+        <v>150</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44859</v>
-      </c>
-      <c r="B6" t="n">
-        <v>407.0135666427747</v>
-      </c>
-      <c r="C6" t="n">
-        <v>194.576693712082</v>
-      </c>
-      <c r="D6" t="n">
-        <v>645.9192595580909</v>
-      </c>
-      <c r="E6" t="n">
-        <v>390</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B7" t="n">
-        <v>287.3286296158108</v>
+        <v>216.0555219318405</v>
       </c>
       <c r="C7" t="n">
-        <v>55.37571463162249</v>
+        <v>-26.80186315862935</v>
       </c>
       <c r="D7" t="n">
-        <v>531.8739596444722</v>
+        <v>441.5325735603095</v>
       </c>
       <c r="E7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B8" t="n">
-        <v>208.9509065264764</v>
+        <v>392.1248502723626</v>
       </c>
       <c r="C8" t="n">
-        <v>-26.2349488476592</v>
+        <v>142.5909772147912</v>
       </c>
       <c r="D8" t="n">
-        <v>436.2804827973916</v>
+        <v>637.8573155026214</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>44866</v>
@@ -613,99 +613,99 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B9" t="n">
+        <v>431.8532807662394</v>
+      </c>
+      <c r="C9" t="n">
+        <v>199.2013557501947</v>
+      </c>
+      <c r="D9" t="n">
+        <v>657.6606600046541</v>
+      </c>
+      <c r="E9" t="n">
+        <v>260</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B9" t="n">
-        <v>387.9367982084501</v>
-      </c>
-      <c r="C9" t="n">
-        <v>171.2757824764343</v>
-      </c>
-      <c r="D9" t="n">
-        <v>608.8396589030376</v>
-      </c>
-      <c r="E9" t="n">
-        <v>390</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B10" t="n">
+        <v>411.3419923266628</v>
+      </c>
+      <c r="C10" t="n">
+        <v>173.7375404728989</v>
+      </c>
+      <c r="D10" t="n">
+        <v>636.4707840717489</v>
+      </c>
+      <c r="E10" t="n">
+        <v>320</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44880</v>
-      </c>
-      <c r="B10" t="n">
-        <v>432.360140693123</v>
-      </c>
-      <c r="C10" t="n">
-        <v>187.1527589995221</v>
-      </c>
-      <c r="D10" t="n">
-        <v>669.1096172410641</v>
-      </c>
-      <c r="E10" t="n">
-        <v>260</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B11" t="n">
+        <v>349.6452222780463</v>
+      </c>
+      <c r="C11" t="n">
+        <v>126.5937884415885</v>
+      </c>
+      <c r="D11" t="n">
+        <v>590.1178340612631</v>
+      </c>
+      <c r="E11" t="n">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="B11" t="n">
-        <v>411.5583073944837</v>
-      </c>
-      <c r="C11" t="n">
-        <v>172.4419295037522</v>
-      </c>
-      <c r="D11" t="n">
-        <v>661.198336296158</v>
-      </c>
-      <c r="E11" t="n">
-        <v>320</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44880</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B12" t="n">
+        <v>144.9347800557387</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-69.95715682824461</v>
+      </c>
+      <c r="D12" t="n">
+        <v>377.0703729596835</v>
+      </c>
+      <c r="E12" t="n">
+        <v>150</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B12" t="n">
-        <v>348.6224982527636</v>
-      </c>
-      <c r="C12" t="n">
-        <v>119.3199588682442</v>
-      </c>
-      <c r="D12" t="n">
-        <v>580.4771062078861</v>
-      </c>
-      <c r="E12" t="n">
-        <v>90</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B13" t="n">
-        <v>143.0498530340689</v>
+        <v>301.1524209821999</v>
       </c>
       <c r="C13" t="n">
-        <v>-91.0082724446402</v>
+        <v>78.93312488065439</v>
       </c>
       <c r="D13" t="n">
-        <v>385.2528288157786</v>
+        <v>520.4189142430438</v>
       </c>
       <c r="E13" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44894</v>
@@ -713,341 +713,321 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B14" t="n">
+        <v>382.7386050892381</v>
+      </c>
+      <c r="C14" t="n">
+        <v>158.1044167246777</v>
+      </c>
+      <c r="D14" t="n">
+        <v>613.6306321501773</v>
+      </c>
+      <c r="E14" t="n">
+        <v>570</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B14" t="n">
-        <v>303.6944005442144</v>
-      </c>
-      <c r="C14" t="n">
-        <v>65.93409569324238</v>
-      </c>
-      <c r="D14" t="n">
-        <v>539.7506808908686</v>
-      </c>
-      <c r="E14" t="n">
-        <v>190</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B15" t="n">
+        <v>558.70287678838</v>
+      </c>
+      <c r="C15" t="n">
+        <v>313.9374469599269</v>
+      </c>
+      <c r="D15" t="n">
+        <v>792.6870187502047</v>
+      </c>
+      <c r="E15" t="n">
+        <v>240</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B15" t="n">
-        <v>377.2341197630838</v>
-      </c>
-      <c r="C15" t="n">
-        <v>141.6752554540364</v>
-      </c>
-      <c r="D15" t="n">
-        <v>603.0297020743924</v>
-      </c>
-      <c r="E15" t="n">
-        <v>570</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B16" t="n">
+        <v>618.4401751190505</v>
+      </c>
+      <c r="C16" t="n">
+        <v>398.7030139492128</v>
+      </c>
+      <c r="D16" t="n">
+        <v>851.8163846994441</v>
+      </c>
+      <c r="E16" t="n">
+        <v>210</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44915</v>
-      </c>
-      <c r="B16" t="n">
-        <v>559.7306779303221</v>
-      </c>
-      <c r="C16" t="n">
-        <v>320.7822165965093</v>
-      </c>
-      <c r="D16" t="n">
-        <v>789.1170374668972</v>
-      </c>
-      <c r="E16" t="n">
-        <v>240</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44908</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B17" t="n">
+        <v>504.3889831620993</v>
+      </c>
+      <c r="C17" t="n">
+        <v>281.4789617181195</v>
+      </c>
+      <c r="D17" t="n">
+        <v>745.9618628536439</v>
+      </c>
+      <c r="E17" t="n">
+        <v>360</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B17" t="n">
-        <v>610.2984604211838</v>
-      </c>
-      <c r="C17" t="n">
-        <v>381.8918185325298</v>
-      </c>
-      <c r="D17" t="n">
-        <v>843.6689096679844</v>
-      </c>
-      <c r="E17" t="n">
-        <v>210</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B18" t="n">
+        <v>333.1858799870832</v>
+      </c>
+      <c r="C18" t="n">
+        <v>106.9155808557017</v>
+      </c>
+      <c r="D18" t="n">
+        <v>590.5325801627121</v>
+      </c>
+      <c r="E18" t="n">
+        <v>110</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B18" t="n">
-        <v>510.0612417327555</v>
-      </c>
-      <c r="C18" t="n">
-        <v>257.4599638229176</v>
-      </c>
-      <c r="D18" t="n">
-        <v>741.0557302961402</v>
-      </c>
-      <c r="E18" t="n">
-        <v>360</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44936</v>
+        <v>44985</v>
       </c>
       <c r="B19" t="n">
-        <v>329.0109801115113</v>
+        <v>273.4553709763539</v>
       </c>
       <c r="C19" t="n">
-        <v>110.3760005011209</v>
+        <v>31.35629942157698</v>
       </c>
       <c r="D19" t="n">
-        <v>562.8997635263862</v>
+        <v>514.3728073299592</v>
       </c>
       <c r="E19" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44929</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B20" t="n">
+        <v>488.1466991773332</v>
+      </c>
+      <c r="C20" t="n">
+        <v>248.9687337222553</v>
+      </c>
+      <c r="D20" t="n">
+        <v>718.7363036462102</v>
+      </c>
+      <c r="E20" t="n">
+        <v>240</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B20" t="n">
-        <v>269.5048669821369</v>
-      </c>
-      <c r="C20" t="n">
-        <v>35.70164671629311</v>
-      </c>
-      <c r="D20" t="n">
-        <v>502.1198545711642</v>
-      </c>
-      <c r="E20" t="n">
-        <v>30</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>613.2914896757994</v>
+      </c>
+      <c r="C21" t="n">
+        <v>384.9630213058127</v>
+      </c>
+      <c r="D21" t="n">
+        <v>825.2667599432497</v>
+      </c>
+      <c r="E21" t="n">
+        <v>380</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B21" t="n">
-        <v>494.8998519010357</v>
-      </c>
-      <c r="C21" t="n">
-        <v>271.40037988144</v>
-      </c>
-      <c r="D21" t="n">
-        <v>734.6735388098376</v>
-      </c>
-      <c r="E21" t="n">
-        <v>240</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B22" t="n">
-        <v>624.0908018817985</v>
+        <v>377.7559876643247</v>
       </c>
       <c r="C22" t="n">
-        <v>400.7240845869067</v>
+        <v>143.134514252914</v>
       </c>
       <c r="D22" t="n">
-        <v>868.6676945190064</v>
+        <v>608.1841899282114</v>
       </c>
       <c r="E22" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B23" t="n">
+        <v>285.3751508255915</v>
+      </c>
+      <c r="C23" t="n">
+        <v>47.26908910921048</v>
+      </c>
+      <c r="D23" t="n">
+        <v>518.2187679058206</v>
+      </c>
+      <c r="E23" t="n">
+        <v>330</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B23" t="n">
-        <v>381.4733068448907</v>
-      </c>
-      <c r="C23" t="n">
-        <v>158.3727438691301</v>
-      </c>
-      <c r="D23" t="n">
-        <v>608.0418852097824</v>
-      </c>
-      <c r="E23" t="n">
-        <v>460</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B24" t="n">
+        <v>394.7804992992818</v>
+      </c>
+      <c r="C24" t="n">
+        <v>170.4508420312803</v>
+      </c>
+      <c r="D24" t="n">
+        <v>623.705442174062</v>
+      </c>
+      <c r="E24" t="n">
+        <v>390</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B24" t="n">
-        <v>286.7530067549814</v>
-      </c>
-      <c r="C24" t="n">
-        <v>53.13351622210905</v>
-      </c>
-      <c r="D24" t="n">
-        <v>528.1281417507158</v>
-      </c>
-      <c r="E24" t="n">
-        <v>330</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B25" t="n">
+        <v>649.2177987953127</v>
+      </c>
+      <c r="C25" t="n">
+        <v>430.3691497609747</v>
+      </c>
+      <c r="D25" t="n">
+        <v>872.4702280914022</v>
+      </c>
+      <c r="E25" t="n">
+        <v>600</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B25" t="n">
-        <v>386.1926471092381</v>
-      </c>
-      <c r="C25" t="n">
-        <v>161.8581721318598</v>
-      </c>
-      <c r="D25" t="n">
-        <v>608.3504767426966</v>
-      </c>
-      <c r="E25" t="n">
-        <v>390</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B26" t="n">
+        <v>711.4255689634614</v>
+      </c>
+      <c r="C26" t="n">
+        <v>480.099411525104</v>
+      </c>
+      <c r="D26" t="n">
+        <v>944.4699742369354</v>
+      </c>
+      <c r="E26" t="n">
+        <v>800</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B26" t="n">
-        <v>642.5791374132521</v>
-      </c>
-      <c r="C26" t="n">
-        <v>417.5360049226472</v>
-      </c>
-      <c r="D26" t="n">
-        <v>863.6203172331685</v>
-      </c>
-      <c r="E26" t="n">
-        <v>600</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B27" t="n">
-        <v>729.1634366701946</v>
+        <v>839.5745711872978</v>
       </c>
       <c r="C27" t="n">
-        <v>500.5134519824812</v>
+        <v>633.0864427456027</v>
       </c>
       <c r="D27" t="n">
-        <v>959.6830053328364</v>
+        <v>1050.612657613578</v>
       </c>
       <c r="E27" t="n">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B28" t="n">
+        <v>600.9668797635375</v>
+      </c>
+      <c r="C28" t="n">
+        <v>353.1710602189231</v>
+      </c>
+      <c r="D28" t="n">
+        <v>819.463500723932</v>
+      </c>
+      <c r="E28" t="n">
+        <v>560</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B28" t="n">
-        <v>843.1112476515636</v>
-      </c>
-      <c r="C28" t="n">
-        <v>633.7936148958685</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1060.133846433684</v>
-      </c>
-      <c r="E28" t="n">
-        <v>810</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B29" t="n">
-        <v>599.6327338646506</v>
+        <v>296.6286491607507</v>
       </c>
       <c r="C29" t="n">
-        <v>374.9868062892073</v>
+        <v>78.61117432419512</v>
       </c>
       <c r="D29" t="n">
-        <v>821.976909075218</v>
+        <v>517.4205361182345</v>
       </c>
       <c r="E29" t="n">
-        <v>560</v>
+        <v>170</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B30" t="n">
-        <v>292.8113147390679</v>
-      </c>
-      <c r="C30" t="n">
-        <v>79.75171229277684</v>
-      </c>
-      <c r="D30" t="n">
-        <v>517.9443935024827</v>
-      </c>
-      <c r="E30" t="n">
-        <v>170</v>
-      </c>
-      <c r="F30" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1117,22 +1097,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5959.302287894518</v>
+        <v>6747.270311977831</v>
       </c>
       <c r="C2" t="n">
-        <v>77.19651733008762</v>
+        <v>82.14176959365942</v>
       </c>
       <c r="D2" t="n">
-        <v>57.95052674620374</v>
+        <v>60.56037093805091</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5679216891854856</v>
+        <v>0.5971616761400735</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5679216891854856</v>
+        <v>0.5971616761400735</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3763645615076834</v>
+        <v>0.3843738260698959</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1143,22 +1123,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>11938.48560826703</v>
+        <v>12438.7989849905</v>
       </c>
       <c r="C3" t="n">
-        <v>109.263377250875</v>
+        <v>111.5293637791882</v>
       </c>
       <c r="D3" t="n">
-        <v>104.0825964728081</v>
+        <v>109.540890005869</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5020349508004975</v>
+        <v>0.4903835159818345</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5020349508004975</v>
+        <v>0.4903835159818345</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3603407481796155</v>
+        <v>0.3617510214591594</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1169,25 +1149,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>31002.64754724264</v>
+        <v>32028.31146363716</v>
       </c>
       <c r="C4" t="n">
-        <v>176.0756869850084</v>
+        <v>178.9645536513786</v>
       </c>
       <c r="D4" t="n">
-        <v>142.8774669937668</v>
+        <v>145.2384768772317</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9188946740699233</v>
+        <v>0.9556347462861172</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4168367825909876</v>
+        <v>0.488903622249957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4447621516930429</v>
+        <v>0.45533244965607</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7200000000000006</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
